--- a/semestralka_automat/tabulka_prechodovych_funkci.xlsx
+++ b/semestralka_automat/tabulka_prechodovych_funkci.xlsx
@@ -467,32 +467,32 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabulka3" displayName="Tabulka3" ref="A2:T35" headerRowCount="0" totalsRowShown="0" headerRowDxfId="41">
   <tableColumns count="20">
     <tableColumn id="1" name="Sloupec1"/>
-    <tableColumn id="2" name="Sloupec2" headerRowDxfId="22"/>
-    <tableColumn id="3" name="Sloupec3" headerRowDxfId="23"/>
-    <tableColumn id="4" name="Sloupec4" headerRowDxfId="24"/>
-    <tableColumn id="5" name="Sloupec5" headerRowDxfId="25"/>
-    <tableColumn id="6" name="Sloupec6" headerRowDxfId="26"/>
-    <tableColumn id="7" name="Sloupec7" headerRowDxfId="27"/>
-    <tableColumn id="8" name="Sloupec8" headerRowDxfId="28"/>
-    <tableColumn id="9" name="Sloupec9" headerRowDxfId="29"/>
-    <tableColumn id="10" name="Sloupec10" headerRowDxfId="30"/>
+    <tableColumn id="2" name="Sloupec2" headerRowDxfId="40"/>
+    <tableColumn id="3" name="Sloupec3" headerRowDxfId="39"/>
+    <tableColumn id="4" name="Sloupec4" headerRowDxfId="38"/>
+    <tableColumn id="5" name="Sloupec5" headerRowDxfId="37"/>
+    <tableColumn id="6" name="Sloupec6" headerRowDxfId="36"/>
+    <tableColumn id="7" name="Sloupec7" headerRowDxfId="35"/>
+    <tableColumn id="8" name="Sloupec8" headerRowDxfId="34"/>
+    <tableColumn id="9" name="Sloupec9" headerRowDxfId="33"/>
+    <tableColumn id="10" name="Sloupec10" headerRowDxfId="32"/>
     <tableColumn id="11" name="Sloupec11" headerRowDxfId="31"/>
-    <tableColumn id="12" name="Sloupec12" headerRowDxfId="32"/>
-    <tableColumn id="13" name="Sloupec13" headerRowDxfId="33"/>
-    <tableColumn id="14" name="Sloupec14" headerRowDxfId="34"/>
-    <tableColumn id="15" name="Sloupec15" headerRowDxfId="35"/>
-    <tableColumn id="16" name="Sloupec16" headerRowDxfId="36"/>
-    <tableColumn id="17" name="Sloupec17" headerRowDxfId="37"/>
-    <tableColumn id="18" name="Sloupec18" headerRowDxfId="38"/>
-    <tableColumn id="19" name="Sloupec19" headerRowDxfId="39"/>
-    <tableColumn id="20" name="Sloupec20" headerRowDxfId="40"/>
+    <tableColumn id="12" name="Sloupec12" headerRowDxfId="30"/>
+    <tableColumn id="13" name="Sloupec13" headerRowDxfId="29"/>
+    <tableColumn id="14" name="Sloupec14" headerRowDxfId="28"/>
+    <tableColumn id="15" name="Sloupec15" headerRowDxfId="27"/>
+    <tableColumn id="16" name="Sloupec16" headerRowDxfId="26"/>
+    <tableColumn id="17" name="Sloupec17" headerRowDxfId="25"/>
+    <tableColumn id="18" name="Sloupec18" headerRowDxfId="24"/>
+    <tableColumn id="19" name="Sloupec19" headerRowDxfId="23"/>
+    <tableColumn id="20" name="Sloupec20" headerRowDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabulka5" displayName="Tabulka5" ref="B1:T21" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabulka5" displayName="Tabulka5" ref="B1:T21" headerRowDxfId="21" dataDxfId="20" totalsRowDxfId="19">
   <autoFilter ref="B1:T21">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -515,25 +515,25 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" name="A" totalsRowLabel="Celkem" dataDxfId="21"/>
-    <tableColumn id="2" name="B" dataDxfId="20"/>
-    <tableColumn id="3" name="C" dataDxfId="19"/>
-    <tableColumn id="4" name="D" dataDxfId="18"/>
-    <tableColumn id="5" name="E" dataDxfId="17"/>
-    <tableColumn id="6" name="F" dataDxfId="16"/>
-    <tableColumn id="7" name="G" dataDxfId="15"/>
-    <tableColumn id="8" name="H" dataDxfId="14"/>
-    <tableColumn id="9" name="I" dataDxfId="13"/>
-    <tableColumn id="10" name="J" dataDxfId="12"/>
-    <tableColumn id="11" name="K" dataDxfId="11"/>
-    <tableColumn id="12" name="L" dataDxfId="10"/>
-    <tableColumn id="13" name="M" totalsRowFunction="count" dataDxfId="9"/>
-    <tableColumn id="14" name="N" dataDxfId="8"/>
-    <tableColumn id="15" name="O" dataDxfId="7"/>
-    <tableColumn id="16" name="P" dataDxfId="6"/>
-    <tableColumn id="17" name="Q" dataDxfId="5"/>
-    <tableColumn id="34" name="R" dataDxfId="4"/>
-    <tableColumn id="35" name="S" dataDxfId="3"/>
+    <tableColumn id="1" name="A" totalsRowLabel="Celkem" dataDxfId="18"/>
+    <tableColumn id="2" name="B" dataDxfId="17"/>
+    <tableColumn id="3" name="C" dataDxfId="16"/>
+    <tableColumn id="4" name="D" dataDxfId="15"/>
+    <tableColumn id="5" name="E" dataDxfId="14"/>
+    <tableColumn id="6" name="F" dataDxfId="13"/>
+    <tableColumn id="7" name="G" dataDxfId="12"/>
+    <tableColumn id="8" name="H" dataDxfId="11"/>
+    <tableColumn id="9" name="I" dataDxfId="10"/>
+    <tableColumn id="10" name="J" dataDxfId="9"/>
+    <tableColumn id="11" name="K" dataDxfId="8"/>
+    <tableColumn id="12" name="L" dataDxfId="7"/>
+    <tableColumn id="13" name="M" totalsRowFunction="count" dataDxfId="6"/>
+    <tableColumn id="14" name="N" dataDxfId="5"/>
+    <tableColumn id="15" name="O" dataDxfId="4"/>
+    <tableColumn id="16" name="P" dataDxfId="3"/>
+    <tableColumn id="17" name="Q" dataDxfId="2"/>
+    <tableColumn id="34" name="R" dataDxfId="1"/>
+    <tableColumn id="35" name="S" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1096,7 +1096,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,7 +1199,9 @@
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="3">
+        <v>50</v>
+      </c>
       <c r="C3" s="7"/>
       <c r="D3" s="3">
         <v>49</v>
@@ -1229,7 +1231,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1259,9 +1261,7 @@
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>52</v>
-      </c>
+      <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
